--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2817.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2817.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174152758871436</v>
+        <v>0.8957854509353638</v>
       </c>
       <c r="B1">
-        <v>2.44088051450345</v>
+        <v>1.785931944847107</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.2351975440979</v>
       </c>
       <c r="D1">
-        <v>2.364825974691076</v>
+        <v>3.504871368408203</v>
       </c>
       <c r="E1">
-        <v>1.233041911482997</v>
+        <v>1.504392743110657</v>
       </c>
     </row>
   </sheetData>
